--- a/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="480">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1850,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2235,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3132,7 +3140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3395,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3786,7 +3794,6 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3814,13 +3821,14 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3829,7 +3837,6 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3845,13 +3852,14 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3859,7 +3867,6 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3875,20 +3882,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3904,19 +3911,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3944,13 +3951,14 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3959,7 +3967,6 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3975,13 +3982,14 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3989,7 +3997,6 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4005,20 +4012,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4034,19 +4041,21 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4122,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7204444187257681</v>
+        <v>0.6522273965380897</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7213472624470516</v>
+        <v>0.6738448624632019</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8962617498000253</v>
+        <v>0.8872713104893869</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.17744533879953694</v>
+        <v>0.13713142745942952</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.588696126877221</v>
+        <v>2.066025596138819</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.07237696319112895</v>
+        <v>0.08757323178683124</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.2626262626262625</v>
+        <v>1.7086247086247086</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6428429465056406</v>
+        <v>0.5050622346375658</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20146672956286837</v>
+        <v>0.0921055211748209</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7031617991285247</v>
+        <v>0.6522420516807794</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7034844127307888</v>
+        <v>0.6828120210374763</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8764390485594719</v>
+        <v>0.8751271942893774</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.17741658469863966</v>
+        <v>0.15210552752521397</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.372503986079099</v>
+        <v>2.152704598928549</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.07719443557867009</v>
+        <v>0.08900742239657017</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06474363487308211</v>
+        <v>0.09091025556358891</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20163694652551398</v>
+        <v>0.09402641172113602</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6961436872688854</v>
+        <v>0.6341357387382491</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6962792471610444</v>
+        <v>0.6565692671790964</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8731974134609565</v>
+        <v>0.8718526479735442</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.17246555750845688</v>
+        <v>0.1374226168936435</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.2924980945580558</v>
+        <v>1.9117953183342276</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.07875486386347924</v>
+        <v>0.09190804044924784</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06778936667489736</v>
+        <v>0.09363505958161032</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.20163694652551398</v>
+        <v>0.0921055211748209</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6792661530246396</v>
+        <v>0.6193687043482048</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.6754878480740268</v>
+        <v>0.6339327512134385</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8636850256882103</v>
+        <v>0.8688621744212391</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.15912096862466707</v>
+        <v>0.12611210932429134</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.081548700302962</v>
+        <v>1.7317385079238774</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.08357780853637437</v>
+        <v>0.09513827821594288</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.07033432310950738</v>
+        <v>0.09795564033179213</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.13188093501475592</v>
+        <v>0.0921055211748209</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6758844126051435</v>
+        <v>0.6362373386546768</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.678975690081467</v>
+        <v>0.6440593212577239</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8597786107892007</v>
+        <v>0.871919386503183</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.16126757388732418</v>
+        <v>0.13103027317827046</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.115028890658692</v>
+        <v>1.8094569115660553</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.08516404076364546</v>
+        <v>0.092640827013949</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06827853825749841</v>
+        <v>0.08254139693982096</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1727214918724559</v>
+        <v>0.09149212815031399</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.70139116202946</v>
+        <v>0.6187973636073284</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.707711811367153</v>
+        <v>0.6440593212577239</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.856344954052626</v>
+        <v>0.871919386503183</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.1804060973218644</v>
+        <v>0.13103027317827046</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.421280910040924</v>
+        <v>1.8094569115660553</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.07709316929657842</v>
+        <v>0.0952231864575211</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.059856716080094824</v>
+        <v>0.08254139693982096</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20129651260022274</v>
+        <v>0.09149212815031399</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.6962934182920195</v>
+        <v>0.608346594117345</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7001456662121597</v>
+        <v>0.6317670147676823</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8508781311193395</v>
+        <v>0.7934683214534038</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.17510018200369226</v>
+        <v>0.12508843768261313</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.3349526330592987</v>
+        <v>1.7156719797089912</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0782209810673296</v>
+        <v>0.09779215947811461</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.06094353764115318</v>
+        <v>0.08504014674263792</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20129651260022274</v>
+        <v>0.09244943840549857</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7364612496294589</v>
+        <v>0.6502989627821842</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7458198578649159</v>
+        <v>0.6713161580870439</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8968088596995599</v>
+        <v>0.8727440736750193</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.21057641836409347</v>
+        <v>0.1454474965386501</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.9342176442270986</v>
+        <v>2.042437359195849</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.06960676815101415</v>
+        <v>0.08930924158901683</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06667630000956713</v>
+        <v>0.10182306861526717</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2297771188754865</v>
+        <v>0.09149212815031399</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7120754859692913</v>
+        <v>0.6659293803009977</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7109187339902975</v>
+        <v>0.6841056285799918</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8891637297151983</v>
+        <v>0.8871688019743106</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.18271728713162178</v>
+        <v>0.15287829760329613</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.459234885066667</v>
+        <v>2.165615124779846</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.07441849038763027</v>
+        <v>0.08472488148593871</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.07281374245262599</v>
+        <v>0.09978578697561935</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20163694652551398</v>
+        <v>0.09433332612731564</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7046755340588473</v>
+        <v>0.6336911471943804</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7005570860690575</v>
+        <v>0.6452939858564621</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8845445135760002</v>
+        <v>0.880691640629849</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.1753835308216716</v>
+        <v>0.13164519999021673</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.3395346941842146</v>
+        <v>1.8192361001111559</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.07558670369301512</v>
+        <v>0.09163784555288439</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0639271644705479</v>
+        <v>0.10559905007051598</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20129651260022274</v>
+        <v>0.09149212815031399</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.745679819542973</v>
+        <v>0.6253242695650527</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7464891074281308</v>
+        <v>0.6541248495625203</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9062137859160461</v>
+        <v>0.8759227733059195</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.21116438647682348</v>
+        <v>0.13614478221889603</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.944603680950331</v>
+        <v>1.8912166680235671</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.06679074486051083</v>
+        <v>0.09254872537440473</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06211144851291817</v>
+        <v>0.09701401241945994</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.21163074303319132</v>
+        <v>0.0921055211748209</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6808780075981427</v>
+        <v>0.6762519340352465</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.6770773796421947</v>
+        <v>0.6958895788679694</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8775112539571293</v>
+        <v>0.8934142871156863</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.16009486063180228</v>
+        <v>0.16015079523821496</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.096717098641087</v>
+        <v>2.288279291046875</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.08213760931419366</v>
+        <v>0.08147773389015336</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06720370471941448</v>
+        <v>0.09982980087456574</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.13188093501475592</v>
+        <v>0.0937194973149564</v>
       </c>
     </row>
     <row r="22">
@@ -4515,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6848414214749713</v>
+        <v>0.5863719775747803</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.6827495274150963</v>
+        <v>0.6228381236447438</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8761543484524701</v>
+        <v>0.8670499111960919</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.16363061812378596</v>
+        <v>0.12096808297039721</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.1520835630351223</v>
+        <v>1.6513814430652591</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.08145760823639026</v>
+        <v>0.1038972405228816</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0671692413563064</v>
+        <v>0.10071006045898534</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.17525007204064344</v>
+        <v>0.09105070607844784</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6114172999941985</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6473656051814698</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8763358795247631</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.13268466463060943</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.8357982508048085</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.09762612495673896</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.10160355290005395</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09149212815031399</v>
       </c>
     </row>
     <row r="24">
@@ -4550,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>33.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.4753510550821458</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.496241080958211</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.4788154758623952</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.3524053978793669</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.121212121212121</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.111237366564176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5389548128694591</v>
+        <v>0.20475871268667337</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5419937728339794</v>
+        <v>0.282595804145471</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5245111978117718</v>
+        <v>0.26193147498239433</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.39850294156312394</v>
+        <v>0.16902064931307012</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.334279966987075</v>
+        <v>0.24230584229877994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6505933310613159</v>
+        <v>0.43323878510671254</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6653117914906892</v>
+        <v>0.4478392341081411</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6530403987057342</v>
+        <v>0.4272558558672481</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5557347492413196</v>
+        <v>0.281098521633624</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.1818181818181817</v>
+        <v>3.121212121212121</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1026826791552913</v>
+        <v>1.111237366564176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6547153007987566</v>
+        <v>0.5319296920116727</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.645474904035093</v>
+        <v>0.575129191275073</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6377884048335639</v>
+        <v>0.5603957662946458</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5267906053433198</v>
+        <v>0.36187879985212873</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.757575757575758</v>
+        <v>3.696969696969697</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.4367998953904262</v>
+        <v>1.334279966987075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5059453590426913</v>
+        <v>0.5335084080168724</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4686148440875398</v>
+        <v>0.5197795208492025</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.4916862141659097</v>
+        <v>0.5389048765642264</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.36117327042780506</v>
+        <v>0.4959209300532843</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.48484848484848486</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3257359305592338</v>
+        <v>0.33143398263980844</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5568045545930604</v>
+        <v>0.5335084080168724</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5176470750461195</v>
+        <v>0.5197795208492025</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5436194907665454</v>
+        <v>0.5389048765642266</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.39712932837449766</v>
+        <v>0.3650008029920891</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5454545454545454</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5225576567676569</v>
+        <v>1.3257359305592338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.18958678360410208</v>
+        <v>0.5945070660830479</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.18980938626755228</v>
+        <v>0.586649728140748</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.10789231618597075</v>
+        <v>0.6195626116317349</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.048130877319788753</v>
+        <v>0.4110947626878623</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.727272727272727</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.0975178606954215</v>
+        <v>1.5225576567676569</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.48632764069071455</v>
+        <v>0.2636863654656869</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4472570225344857</v>
+        <v>0.357526170788987</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.38594555662009006</v>
+        <v>0.3132053154265895</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.30459804359988024</v>
+        <v>0.22886288557567536</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.878787878787879</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5960415047386722</v>
+        <v>0.24230584229877994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.47951351361845057</v>
+        <v>0.23378260042361007</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5150286343338413</v>
+        <v>0.2738989468615857</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4830531048218886</v>
+        <v>0.20553084441315972</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.336787358138787</v>
+        <v>0.06836465163028316</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.1515151515151516</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.2777228798044424</v>
+        <v>1.0975178606954215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.1626346551253654</v>
+        <v>0.5154459949871221</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.18437594329477766</v>
+        <v>0.5128590526851089</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.09453246545428916</v>
+        <v>0.455054795021693</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.0014002461008765456</v>
+        <v>0.3029059449751301</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.212121212121212</v>
+        <v>2.878787878787879</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2439246298906075</v>
+        <v>1.5960415047386722</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6323099462086899</v>
+        <v>0.49892289223947234</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.656312006352954</v>
+        <v>0.46222015556703033</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6328444800423704</v>
+        <v>0.42861176950022944</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5256830851102392</v>
+        <v>0.33131447514162443</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8181818181818181</v>
+        <v>1.1515151515151516</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.184655684538377</v>
+        <v>1.2777228798044424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>33.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6053170607201243</v>
+        <v>0.22006449252660829</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.623637893110567</v>
+        <v>0.19205329079626274</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6008149772010987</v>
+        <v>0.11123020247553189</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4891861846862424</v>
+        <v>0.03136340803499842</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.212121212121212</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2439246298906075</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>33.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6720394513220168</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6330207483283569</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6096236053988104</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5530904284460029</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.184655684538377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>33.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5591305622690091</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.501160779310477</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.45386991393713366</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4098094830072142</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.5757575757575757</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2255178250004932</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.030303030303030304</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.09090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3939393939393939</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.42424242424242425</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5009,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.030303030303030304</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.06060606060606061</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.21212121212121213</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.15151515151515152</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5035,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8787878787878788</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.12121212121212122</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5061,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8787878787878788</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
         <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5087,22 +5099,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06060606060606061</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C49" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="113">
         <v>0.12121212121212122</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.18181818181818182</v>
       </c>
       <c r="G49" t="n" s="114">
         <v>0.0</v>
@@ -5113,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06060606060606061</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.09090909090909091</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.2727272727272727</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5139,19 +5151,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.45454545454545453</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.21212121212121213</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2727272727272727</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
         <v>0.0</v>
@@ -5165,22 +5177,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C52" t="n" s="110">
         <v>0.12121212121212122</v>
       </c>
-      <c r="C52" t="n" s="110">
-        <v>0.21212121212121213</v>
-      </c>
       <c r="D52" t="n" s="111">
-        <v>0.09090909090909091</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.48484848484848486</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5191,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18181818181818182</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.18181818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24242424242424243</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.06060606060606061</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5217,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.2727272727272727</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.15151515151515152</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.36363636363636365</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.15151515151515152</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.06060606060606061</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5268,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5317,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.7714672075726843</v>
+        <v>0.8726343679031037</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.7763105351892975</v>
+        <v>0.995418565249122</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.830075721489534</v>
+        <v>0.9591882663087283</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.46455940270064017</v>
+        <v>0.9863804895443486</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>3.470483224796713</v>
+        <v>217.2722344366764</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.0669885231865499</v>
+        <v>0.003984900319737043</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.4393939393939394</v>
+        <v>0.38383838383838387</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9662878045448577</v>
+        <v>1.0544917552796997</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.4032024146668066</v>
+        <v>0.9795707343165229</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.710401891252955</v>
+        <v>0.9849056603773585</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7148579235342207</v>
+        <v>0.9896799516534929</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.701786134218232</v>
+        <v>0.9795707343165229</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.45524112448034</v>
+        <v>0.979570734316523</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>2.5070236297448485</v>
+        <v>95.89877086074507</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.08720617461382679</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.060947622791550755</v>
-      </c>
+        <v>0.0043243497397556065</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.4169032446985413</v>
+        <v>0.9795707343165229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.731133089658138</v>
+        <v>0.5787139689578715</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7348720024654519</v>
+        <v>0.9896799516534929</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.697364136151161</v>
+        <v>0.9795707343165229</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.4802281479918464</v>
+        <v>0.979570734316523</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>2.771763108004816</v>
+        <v>95.89877086074507</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.07946604429562544</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.04359699585452109</v>
-      </c>
+        <v>0.013423680719474076</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.3895015846350719</v>
+        <v>0.9795707343165229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7236588189888074</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7370384797969147</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.694334018493614</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.4830115676087634</v>
-      </c>
-      <c r="F13" t="n" s="177">
-        <v>2.8028377658742616</v>
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="e" s="177">
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.08539131061671991</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.037106461951603865</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.4169032446985413</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7004294917680747</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.701921153040379</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6794663170103525</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.43975677072161085</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.354817056627519</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.09106860236282097</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.057169604395925916</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.3895015846350719</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>33.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9953050270627044</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9977301052504081</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9634263982746962</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9941455988426006</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.33143398263980844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>33.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7637313865045025</v>
+        <v>0.9953050270627044</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7826101122270345</v>
+        <v>0.9977301052504081</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7080007444504692</v>
+        <v>0.9634263982746969</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5936618633875059</v>
+        <v>0.9861850615425867</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.121212121212121</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.111237366564176</v>
+        <v>1.3257359305592338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>33.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7669854085611741</v>
+        <v>0.9944357205817638</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7583846037425832</v>
+        <v>0.990889222714609</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6861818239486378</v>
+        <v>0.9979228100650656</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5492801478430354</v>
+        <v>0.979570734316523</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.696969696969697</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.334279966987075</v>
+        <v>1.5225576567676569</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>33.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7438827512776364</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7556860127913896</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.6876612596534548</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.5658006980562769</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.1818181818181817</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1026826791552913</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>33.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8162754441099542</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7976225583147248</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7373292177918938</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6098723669591458</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.757575757575758</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.4367998953904262</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.06060606060606061</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.42424242424242425</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.0</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5829,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.5865144488048519</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.6153205001857038</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.44437756193272615</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.4443775619327264</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>1.5995666534940118</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.1323518594486112</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.803030303030303</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.1520321307598285</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.4443775619327264</v>
+      <c r="A6" t="n" s="260">
+        <v>0.5580524344569289</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.7624367109907829</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.6955033618795213</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.5168618899233574</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>3.2094045934900373</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.0928797964069228</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.8211226608993472</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.46524489474660585</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.5865144488048519</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.6153205001857038</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.44437756193272615</v>
+      </c>
+      <c r="E11" t="n" s="290">
         <v>0.4443775619327264</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="F11" t="n" s="291">
+        <v>1.5995666534940118</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.1323518594486112</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.4443775619327264</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.19747141754927366</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.4443775619327264</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.4443775619327264</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.4443775619327264</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.19747141754927366</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.4443775619327264</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.19747141754927366</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.4443775619327264</v>
+      <c r="B12" t="n" s="287">
+        <v>0.24265644955300125</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6350404583079112</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.4652448947466059</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.4652448947466059</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>1.7400297451153806</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.06994107393581425</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.46524489474660585</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.42502951593860705</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7812036345208391</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.64096321309074</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6409632130907401</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>3.5704598328679453</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.06718474732688924</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6409632130907401</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>33.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.7841634122318156</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.849816910261477</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.5665019768200283</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.4443775619327263</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.6853724617906202</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8526968713560329</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7561360416860519</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6275947943159543</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.24230584229877994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>33.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.7964997671180768</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8442487463404045</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.7395543991109804</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5020110644177102</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.727272727272727</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.0975178606954215</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>33.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.8916594627259766</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.7731093087252695</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.5642574172938352</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.4740756721910084</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.878787878787879</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.5960415047386722</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>33.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9043818137597323</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.849816910261477</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.5665019768200285</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.4443775619327263</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.878787878787879</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.5960415047386722</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.06060606060606061</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.12121212121212122</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.030303030303030304</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.6060606060606061</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.18181818181818182</v>
       </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.06060606060606061</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.3939393939393939</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.09090909090909091</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2727272727272727</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6202,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.7916502560063017</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.7919252338030165</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.6555266743100638</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.6555266743100638</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>3.805964789854933</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.07246501626463443</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.696969696969697</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.096438794599603</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.6555266743100637</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7317765856737142</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8817267372030417</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8327571118458498</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.7130558526938936</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>7.4549963056038875</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.0426742163418086</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.585858585858586</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8166254370132641</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.7146856415459762</v>
       </c>
     </row>
     <row r="7">
@@ -6275,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.4297152207320124</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.6555266743100637</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8154761904761905</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8235236045763694</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.6999916086542743</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.6999916086542743</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>4.666480197532964</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.0622125177540286</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.6999916086542742</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.4297152207320124</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.4297152207320124</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.6555266743100637</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4016460905349797</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8336054425715131</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.7146856415459761</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.7146856415459761</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>5.009811952111355</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.05293033628965143</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.7146856415459762</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.46344206974128244</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.8402370306986311</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.7244903078814307</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.7244903078814307</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>5.25927274870342</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.05622287293691851</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.7244903078814307</v>
       </c>
     </row>
     <row r="14">
@@ -6363,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>33.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.906578332716983</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.909815001610235</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7366280930843175</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.184655684538377</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.8167666544312371</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9041221419038251</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.832081362739977</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.7794478061348812</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.24230584229877994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>33.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9129972580090849</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.909815001610235</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7366280930843175</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.6555266743100637</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.5757575757575757</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.2255178250004932</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9064826543820859</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.898675548149746</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8193705964136223</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.7314237391606044</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.121212121212121</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.111237366564176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>33.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.932826402239372</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.8950412814499845</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8104751986604634</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.732925775847336</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.696969696969697</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.334279966987075</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="G27" t="n" s="458">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6552,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6601,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9849056603773585</v>
+        <v>0.4539594843462247</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9896799516534929</v>
+        <v>0.45408558003495947</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9795707343165229</v>
+        <v>0.2937326763827124</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.979570734316523</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>95.89877086074507</v>
+        <v>0.8317889460843301</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.0043243497397556065</v>
+        <v>0.1900321693654601</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.5151515151515151</v>
+        <v>1.6818181818181819</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.4168894655461863</v>
+        <v>1.014105068969232</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9795707343165229</v>
+        <v>0.2937326763827121</v>
       </c>
     </row>
     <row r="7">
@@ -6672,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9595588235294118</v>
+        <v>0.08627888517495164</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9595588235294118</v>
+        <v>0.08627888517495164</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9595588235294118</v>
+        <v>0.08627888517495164</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9795707343165229</v>
+        <v>0.29373267638271217</v>
       </c>
     </row>
     <row r="13">
@@ -6728,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6757,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>33.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9941455988426007</v>
+        <v>0.8101252231342692</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9948795741989386</v>
+        <v>0.8042800123037722</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9846648053642252</v>
+        <v>0.4358965253117212</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9795707343165228</v>
+        <v>0.2937326763827122</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.48484848484848486</v>
+        <v>1.1515151515151516</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.3257359305592338</v>
+        <v>1.2777228798044424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>33.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9955645251014118</v>
+        <v>0.7983559300698655</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9948795741989386</v>
+        <v>0.8042800123037722</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9846648053642252</v>
+        <v>0.43589652531172063</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9795707343165229</v>
+        <v>0.2937326763827121</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.5454545454545454</v>
+        <v>2.212121212121212</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.5225576567676569</v>
+        <v>1.2439246298906075</v>
       </c>
     </row>
     <row r="19">
@@ -6819,64 +6993,73 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>42</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="567">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.8787878787878788</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.12121212121212122</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.8787878787878788</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.030303030303030304</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E24" t="n" s="571">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="F24" t="n" s="572">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F24" t="n" s="572">
+      <c r="G24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6906,8 +7089,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="574">
-        <v>48</v>
+      <c r="A1" t="s" s="575">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6921,66 +7104,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="588">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="602">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="602">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="602">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="602">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="602">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="602">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="602">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="602">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="602">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="603">
-        <v>0.4539594843462247</v>
-      </c>
-      <c r="B6" t="n" s="604">
-        <v>0.45408558003495947</v>
-      </c>
-      <c r="C6" t="n" s="605">
-        <v>0.2937326763827124</v>
-      </c>
-      <c r="D6" t="n" s="606">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="E6" t="n" s="607">
-        <v>0.8317889460843301</v>
-      </c>
-      <c r="F6" t="n" s="608">
-        <v>0.1900321693654601</v>
-      </c>
-      <c r="G6" t="n" s="609">
-        <v>1.6818181818181819</v>
-      </c>
-      <c r="H6" t="n" s="610">
-        <v>1.014105068969232</v>
-      </c>
-      <c r="I6" t="n" s="611">
-        <v>0.2937326763827121</v>
+      <c r="A6" t="n" s="604">
+        <v>0.7916502560063017</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.7919252338030165</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.6555266743100638</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.6555266743100638</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>3.805964789854933</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.07246501626463443</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>1.696969696969697</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.096438794599603</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.6555266743100637</v>
       </c>
     </row>
     <row r="7">
@@ -6994,81 +7177,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="615">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="629">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="629">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="629">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="629">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="629">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="629">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="629">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="629">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="625">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="630">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="C11" t="n" s="631">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="D11" t="n" s="632">
-        <v>0.08627888517495164</v>
-      </c>
-      <c r="E11" t="n" s="633">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="F11" s="634"/>
-      <c r="G11" s="635"/>
-      <c r="H11" t="n" s="636">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="I11" t="n" s="637">
-        <v>0.29373267638271217</v>
+      <c r="A11" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.4297152207320124</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.6555266743100637</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="625">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="630">
-        <v>0.08627888517495164</v>
-      </c>
-      <c r="C12" t="n" s="631">
-        <v>0.29373267638271217</v>
-      </c>
-      <c r="D12" s="632"/>
-      <c r="E12" s="633"/>
-      <c r="F12" s="634"/>
-      <c r="G12" s="635"/>
-      <c r="H12" t="n" s="636">
-        <v>0.08627888517495164</v>
-      </c>
-      <c r="I12" t="n" s="637">
-        <v>0.29373267638271217</v>
+      <c r="A12" t="s" s="626">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.4297152207320124</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.4297152207320124</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.6555266743100637</v>
       </c>
     </row>
     <row r="13">
@@ -7082,84 +7265,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="641">
-        <v>30</v>
+      <c r="A15" t="s" s="642">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="655">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="655">
+      <c r="B16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="655">
+      <c r="C16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="655">
+      <c r="D16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="655">
+      <c r="E16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="655">
+      <c r="F16" t="s" s="656">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="655">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="651">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="656">
+      <c r="A17" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>33.0</v>
       </c>
-      <c r="C17" t="n" s="657">
-        <v>0.8101252231342692</v>
-      </c>
-      <c r="D17" t="n" s="658">
-        <v>0.8042800123037722</v>
-      </c>
-      <c r="E17" t="n" s="659">
-        <v>0.4358965253117212</v>
-      </c>
-      <c r="F17" t="n" s="660">
-        <v>0.2937326763827122</v>
-      </c>
-      <c r="G17" t="n" s="661">
-        <v>1.1515151515151516</v>
-      </c>
-      <c r="H17" t="n" s="662">
-        <v>1.2777228798044424</v>
+      <c r="C17" t="n" s="658">
+        <v>0.906578332716983</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.909815001610235</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.7366280930843175</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.184655684538377</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="651">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="656">
+      <c r="A18" t="s" s="652">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>33.0</v>
       </c>
-      <c r="C18" t="n" s="657">
-        <v>0.7983559300698655</v>
-      </c>
-      <c r="D18" t="n" s="658">
-        <v>0.8042800123037722</v>
-      </c>
-      <c r="E18" t="n" s="659">
-        <v>0.43589652531172063</v>
-      </c>
-      <c r="F18" t="n" s="660">
-        <v>0.2937326763827121</v>
-      </c>
-      <c r="G18" t="n" s="661">
-        <v>2.212121212121212</v>
-      </c>
-      <c r="H18" t="n" s="662">
-        <v>1.2439246298906075</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9129972580090849</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.909815001610235</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.7366280930843175</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.6555266743100637</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>1.5757575757575757</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2255178250004932</v>
       </c>
     </row>
     <row r="19">
@@ -7173,74 +7356,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="666">
-        <v>36</v>
+      <c r="A21" t="s" s="667">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="680">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="680">
+      <c r="B22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="680">
+      <c r="C22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="680">
+      <c r="D22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="680">
+      <c r="E22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="680">
-        <v>43</v>
+      <c r="F22" t="s" s="681">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="681">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="676">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="681">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="C23" t="n" s="682">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="D23" t="n" s="683">
+      <c r="A23" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="F23" t="n" s="686">
         <v>0.06060606060606061</v>
       </c>
-      <c r="E23" t="n" s="684">
+      <c r="G23" t="n" s="687">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="677">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="682">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F23" t="n" s="685">
-        <v>0.0</v>
-      </c>
-      <c r="G23" t="n" s="686">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="676">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="681">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="C24" t="n" s="682">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="D24" t="n" s="683">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E24" t="n" s="684">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="F24" t="n" s="685">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G24" t="n" s="686">
+      <c r="C24" t="n" s="683">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7270,8 +7453,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="688">
-        <v>49</v>
+      <c r="A1" t="s" s="689">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7285,66 +7468,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="702">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="716">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="716">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="716">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="716">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="716">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="716">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="716">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="716">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="716">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="717">
-        <v>0.7426911742881978</v>
-      </c>
-      <c r="B6" t="n" s="718">
-        <v>0.7495187332814032</v>
-      </c>
-      <c r="C6" t="n" s="719">
-        <v>0.9018768281417452</v>
-      </c>
-      <c r="D6" t="n" s="720">
-        <v>0.23031420007616946</v>
-      </c>
-      <c r="E6" t="n" s="721">
-        <v>2.9923145275508753</v>
-      </c>
-      <c r="F6" t="n" s="722">
-        <v>0.06873845997346582</v>
-      </c>
-      <c r="G6" t="n" s="723">
-        <v>2.1545454545454548</v>
-      </c>
-      <c r="H6" t="n" s="724">
-        <v>0.704490467062414</v>
-      </c>
-      <c r="I6" t="n" s="725">
-        <v>0.22995576506329612</v>
+      <c r="A6" t="n" s="718">
+        <v>0.6771372259177137</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.7006880645158504</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.8918119199623902</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.1896926355293739</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>2.3409960694766747</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.08407012922950619</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.5845225972250061</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.20129651260022274</v>
       </c>
     </row>
     <row r="7">
@@ -7358,325 +7541,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="729">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="743">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="743">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="743">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="743">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="743">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="743">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="743">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="743">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="739">
+      <c r="A11" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.6642932489451479</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.6825091147853914</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8784519328643358</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.1928031564012821</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>2.1496967206603372</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.08922251377274311</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.10652918942127793</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.20439618260660358</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.6609526699029125</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.6825091147853914</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8784519328643358</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.1928031564012821</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>2.1496967206603372</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.08517016089184182</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.10652918942127793</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.20439618260660358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.6588256227758007</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.6696022816519137</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.7843950414476143</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.18379601353758288</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>2.0266552838190695</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.08442895877393379</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.11300186712075343</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.20439618260660358</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="744">
-        <v>0.7244495636379745</v>
-      </c>
-      <c r="C11" t="n" s="745">
-        <v>0.7315059988839525</v>
-      </c>
-      <c r="D11" t="n" s="746">
-        <v>0.8885747761741557</v>
-      </c>
-      <c r="E11" t="n" s="747">
-        <v>0.2323752067405152</v>
-      </c>
-      <c r="F11" t="n" s="748">
-        <v>2.7244779989247636</v>
-      </c>
-      <c r="G11" t="n" s="749">
-        <v>0.07399438016983667</v>
-      </c>
-      <c r="H11" t="n" s="750">
-        <v>0.07404508543752591</v>
-      </c>
-      <c r="I11" t="n" s="751">
-        <v>0.22986644196939132</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="739">
+      <c r="B14" t="n" s="745">
+        <v>0.6790557721647736</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7098359924449458</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.88024005503205</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.21372155928967887</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>2.4463268150522253</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.08614432594051286</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.12323439360047704</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.2074958526129844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="744">
-        <v>0.7301979077034555</v>
-      </c>
-      <c r="C12" t="n" s="745">
-        <v>0.7361723063759317</v>
-      </c>
-      <c r="D12" t="n" s="746">
-        <v>0.8869410968483895</v>
-      </c>
-      <c r="E12" t="n" s="747">
-        <v>0.2366640540423054</v>
-      </c>
-      <c r="F12" t="n" s="748">
-        <v>2.7903526588263086</v>
-      </c>
-      <c r="G12" t="n" s="749">
-        <v>0.07255098362331325</v>
-      </c>
-      <c r="H12" t="n" s="750">
-        <v>0.07520717841150985</v>
-      </c>
-      <c r="I12" t="n" s="751">
-        <v>0.26291326684946387</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="739">
+      <c r="B15" t="n" s="745">
+        <v>0.6553134182174338</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.67139844012438</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8769263266797296</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.1850187751527136</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>2.0431991874247735</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.08914586069844278</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.1334632062106421</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.20439618260660358</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="744">
-        <v>0.7034851236206173</v>
-      </c>
-      <c r="C13" t="n" s="745">
-        <v>0.7099335099011248</v>
-      </c>
-      <c r="D13" t="n" s="746">
-        <v>0.8796947247104846</v>
-      </c>
-      <c r="E13" t="n" s="747">
-        <v>0.21380113994868866</v>
-      </c>
-      <c r="F13" t="n" s="748">
-        <v>2.4474854356983093</v>
-      </c>
-      <c r="G13" t="n" s="749">
-        <v>0.0801074306348943</v>
-      </c>
-      <c r="H13" t="n" s="750">
-        <v>0.08138876786250189</v>
-      </c>
-      <c r="I13" t="n" s="751">
-        <v>0.2143477741600714</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="739">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="744">
-        <v>0.7022278819049503</v>
-      </c>
-      <c r="C14" t="n" s="745">
-        <v>0.7118083761410725</v>
-      </c>
-      <c r="D14" t="n" s="746">
-        <v>0.8731837968528628</v>
-      </c>
-      <c r="E14" t="n" s="747">
-        <v>0.21533845770313192</v>
-      </c>
-      <c r="F14" t="n" s="748">
-        <v>2.4699134784344365</v>
-      </c>
-      <c r="G14" t="n" s="749">
-        <v>0.08085515042989674</v>
-      </c>
-      <c r="H14" t="n" s="750">
-        <v>0.07953945809397851</v>
-      </c>
-      <c r="I14" t="n" s="751">
-        <v>0.223420962081219</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="739">
+      <c r="B16" t="n" s="745">
+        <v>0.6639455668165648</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.6721665073243651</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8782457925828158</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.18554460916549262</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>2.0503289698634313</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.0866760373310742</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.13625002582747747</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.2074958526129844</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.6337211355130288</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.6682800031635432</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8735562724864578</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.1829019989798154</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>2.0145906473435065</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.09418337022972664</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.13787499534042963</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.0993514049356007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="744">
-        <v>0.6909676714722587</v>
-      </c>
-      <c r="C15" t="n" s="745">
-        <v>0.69575432869906</v>
-      </c>
-      <c r="D15" t="n" s="746">
-        <v>0.8785388894378376</v>
-      </c>
-      <c r="E15" t="n" s="747">
-        <v>0.20260959376433446</v>
-      </c>
-      <c r="F15" t="n" s="748">
-        <v>2.286817510744023</v>
-      </c>
-      <c r="G15" t="n" s="749">
-        <v>0.08246654261691001</v>
-      </c>
-      <c r="H15" t="n" s="750">
-        <v>0.08112639544464466</v>
-      </c>
-      <c r="I15" t="n" s="751">
-        <v>0.22070393095433888</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="739">
+      <c r="B18" t="n" s="745">
+        <v>0.705406861864559</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7320344120839357</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.9072887086312503</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.23285576224561647</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.7318224618947458</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.07805806484749149</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.1356405642634581</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.2074958526129844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="744">
-        <v>0.6932624544349939</v>
-      </c>
-      <c r="C16" t="n" s="745">
-        <v>0.7002571708197514</v>
-      </c>
-      <c r="D16" t="n" s="746">
-        <v>0.879244597158764</v>
-      </c>
-      <c r="E16" t="n" s="747">
-        <v>0.20608269366525978</v>
-      </c>
-      <c r="F16" t="n" s="748">
-        <v>2.336193238499981</v>
-      </c>
-      <c r="G16" t="n" s="749">
-        <v>0.0824241639361051</v>
-      </c>
-      <c r="H16" t="n" s="750">
-        <v>0.08174215618182433</v>
-      </c>
-      <c r="I16" t="n" s="751">
-        <v>0.22986644196939132</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="739">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="744">
-        <v>0.7353046195045748</v>
-      </c>
-      <c r="C17" t="n" s="745">
-        <v>0.7481505628974316</v>
-      </c>
-      <c r="D17" t="n" s="746">
-        <v>0.8592529414293871</v>
-      </c>
-      <c r="E17" t="n" s="747">
-        <v>0.2481596392479833</v>
-      </c>
-      <c r="F17" t="n" s="748">
-        <v>2.9706263055602506</v>
-      </c>
-      <c r="G17" t="n" s="749">
-        <v>0.06995064781263405</v>
-      </c>
-      <c r="H17" t="n" s="750">
-        <v>0.06124875052596169</v>
-      </c>
-      <c r="I17" t="n" s="751">
-        <v>0.26972368193941465</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="739">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="744">
-        <v>0.735277739106223</v>
-      </c>
-      <c r="C18" t="n" s="745">
-        <v>0.741818444539547</v>
-      </c>
-      <c r="D18" t="n" s="746">
-        <v>0.8565844887077736</v>
-      </c>
-      <c r="E18" t="n" s="747">
-        <v>0.24199313418417778</v>
-      </c>
-      <c r="F18" t="n" s="748">
-        <v>2.8732433779653754</v>
-      </c>
-      <c r="G18" t="n" s="749">
-        <v>0.06938495139983301</v>
-      </c>
-      <c r="H18" t="n" s="750">
-        <v>0.064293418565471</v>
-      </c>
-      <c r="I18" t="n" s="751">
-        <v>0.26291326684946387</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="739">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="744">
-        <v>0.7206756818807971</v>
-      </c>
-      <c r="C19" t="n" s="745">
-        <v>0.7241111884495943</v>
-      </c>
-      <c r="D19" t="n" s="746">
-        <v>0.8871191536641756</v>
-      </c>
-      <c r="E19" t="n" s="747">
-        <v>0.22578304993383064</v>
-      </c>
-      <c r="F19" t="n" s="748">
-        <v>2.624648619783905</v>
-      </c>
-      <c r="G19" t="n" s="749">
-        <v>0.07395934528028467</v>
-      </c>
-      <c r="H19" t="n" s="750">
-        <v>0.07380696074176346</v>
-      </c>
-      <c r="I19" t="n" s="751">
-        <v>0.22986644196939132</v>
+      <c r="B19" t="n" s="745">
+        <v>0.579626710748885</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.6247630649294812</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8619122486417878</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.15611678714842597</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>1.6649828589290356</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.11111643396600629</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.14673741560398854</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.034542382727211884</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.7717350113686227</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.7780647758998773</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.9151253634673864</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.28033503153146755</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>3.5058192274555986</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.06276718133235372</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.06434528952087606</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.26291326684946387</v>
+      <c r="A20" t="s" s="740">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="745">
+        <v>0.6093028370354079</v>
+      </c>
+      <c r="C20" t="n" s="746">
+        <v>0.650499908197999</v>
+      </c>
+      <c r="D20" t="n" s="747">
+        <v>0.8813773019377471</v>
+      </c>
+      <c r="E20" t="n" s="748">
+        <v>0.17136453697184922</v>
+      </c>
+      <c r="F20" t="n" s="749">
+        <v>1.8612295774918435</v>
+      </c>
+      <c r="G20" t="n" s="750">
+        <v>0.10312400109844166</v>
+      </c>
+      <c r="H20" t="n" s="751">
+        <v>0.15023161038526991</v>
+      </c>
+      <c r="I20" t="n" s="752">
+        <v>0.06120923819782475</v>
       </c>
     </row>
     <row r="21">
@@ -7690,292 +7873,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23" t="s" s="756">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
+      <c r="B24" t="s" s="770">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="769">
+      <c r="C24" t="s" s="770">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="769">
+      <c r="D24" t="s" s="770">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="769">
+      <c r="E24" t="s" s="770">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="769">
+      <c r="F24" t="s" s="770">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="770">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="769">
+      <c r="H24" t="s" s="770">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="765">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>33.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.5054268154436943</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.4987893313858232</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.511005814094552</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.46137947182675343</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>0.33143398263980844</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>33.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.5054268154436943</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.4987893313858232</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.5110058140945518</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.3072776726814968</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>1.3257359305592338</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>33.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.5547943833056435</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.561109221173665</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.5897105914250261</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.33349805782642933</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>1.5225576567676569</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="770">
+      <c r="B28" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C25" t="n" s="771">
-        <v>0.5182073715927148</v>
-      </c>
-      <c r="D25" t="n" s="772">
-        <v>0.5409461023965215</v>
-      </c>
-      <c r="E25" t="n" s="773">
-        <v>0.5081627005160084</v>
-      </c>
-      <c r="F25" t="n" s="774">
-        <v>0.3883898124596195</v>
-      </c>
-      <c r="G25" t="n" s="775">
+      <c r="C28" t="n" s="772">
+        <v>0.2500590016922033</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.35405613660143903</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.32308389320038416</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.2106172442029856</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.24230584229877994</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>33.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.49233306115817776</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.5526490057374405</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.5186639184520148</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.32800994244636306</v>
+      </c>
+      <c r="G29" t="n" s="776">
         <v>3.121212121212121</v>
       </c>
-      <c r="H25" t="n" s="776">
+      <c r="H29" t="n" s="777">
         <v>1.111237366564176</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="765">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="770">
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C26" t="n" s="771">
-        <v>0.5101615136413687</v>
-      </c>
-      <c r="D26" t="n" s="772">
-        <v>0.5130929745120942</v>
-      </c>
-      <c r="E26" t="n" s="773">
-        <v>0.47860690723931004</v>
-      </c>
-      <c r="F26" t="n" s="774">
-        <v>0.3494377076907913</v>
-      </c>
-      <c r="G26" t="n" s="775">
+      <c r="C30" t="n" s="772">
+        <v>0.4955122616052419</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5490107912426799</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.5118432305150246</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.2940678592624004</v>
+      </c>
+      <c r="G30" t="n" s="776">
         <v>3.696969696969697</v>
       </c>
-      <c r="H26" t="n" s="776">
+      <c r="H30" t="n" s="777">
         <v>1.334279966987075</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="765">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="770">
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C27" t="n" s="771">
-        <v>0.6546131028632425</v>
-      </c>
-      <c r="D27" t="n" s="772">
-        <v>0.6615719538859636</v>
-      </c>
-      <c r="E27" t="n" s="773">
-        <v>0.6284695044889159</v>
-      </c>
-      <c r="F27" t="n" s="774">
-        <v>0.5501917120873957</v>
-      </c>
-      <c r="G27" t="n" s="775">
-        <v>3.1818181818181817</v>
-      </c>
-      <c r="H27" t="n" s="776">
-        <v>1.1026826791552913</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="765">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="770">
+      <c r="C31" t="n" s="772">
+        <v>0.6011295262396227</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.5672948551257296</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.5301781568205622</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.4317623016442116</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>1.1515151515151516</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.2777228798044424</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C28" t="n" s="771">
-        <v>0.6618045197589298</v>
-      </c>
-      <c r="D28" t="n" s="772">
-        <v>0.6515881272303407</v>
-      </c>
-      <c r="E28" t="n" s="773">
-        <v>0.6265941390503471</v>
-      </c>
-      <c r="F28" t="n" s="774">
-        <v>0.5212180004191249</v>
-      </c>
-      <c r="G28" t="n" s="775">
-        <v>3.757575757575758</v>
-      </c>
-      <c r="H28" t="n" s="776">
-        <v>1.4367998953904262</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="765">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="770">
+      <c r="C32" t="n" s="772">
+        <v>0.2807950619117816</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.22166771582951708</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.11016630491279973</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.07065749574926079</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.212121212121212</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.2439246298906075</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C29" t="n" s="771">
-        <v>0.7199468647327303</v>
-      </c>
-      <c r="D29" t="n" s="772">
-        <v>0.7342533867192512</v>
-      </c>
-      <c r="E29" t="n" s="773">
-        <v>0.7079947013080192</v>
-      </c>
-      <c r="F29" t="n" s="774">
-        <v>0.6223304038055906</v>
-      </c>
-      <c r="G29" t="n" s="775">
+      <c r="C33" t="n" s="772">
+        <v>0.7897590700730911</v>
+      </c>
+      <c r="D33" t="n" s="773">
+        <v>0.7526201546725635</v>
+      </c>
+      <c r="E33" t="n" s="774">
+        <v>0.7249592752372087</v>
+      </c>
+      <c r="F33" t="n" s="775">
+        <v>0.6914326986670858</v>
+      </c>
+      <c r="G33" t="n" s="776">
         <v>1.8181818181818181</v>
       </c>
-      <c r="H29" t="n" s="776">
+      <c r="H33" t="n" s="777">
         <v>1.184655684538377</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="765">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="770">
+    <row r="34">
+      <c r="A34" t="s" s="766">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="771">
         <v>33.0</v>
       </c>
-      <c r="C30" t="n" s="771">
-        <v>0.7044971664402585</v>
-      </c>
-      <c r="D30" t="n" s="772">
-        <v>0.7116979798957241</v>
-      </c>
-      <c r="E30" t="n" s="773">
-        <v>0.6812272598507884</v>
-      </c>
-      <c r="F30" t="n" s="774">
-        <v>0.5987417965405301</v>
-      </c>
-      <c r="G30" t="n" s="775">
+      <c r="C34" t="n" s="772">
+        <v>0.6863566215817041</v>
+      </c>
+      <c r="D34" t="n" s="773">
+        <v>0.6471218737095744</v>
+      </c>
+      <c r="E34" t="n" s="774">
+        <v>0.5829797504835942</v>
+      </c>
+      <c r="F34" t="n" s="775">
+        <v>0.5481962098968786</v>
+      </c>
+      <c r="G34" t="n" s="776">
         <v>1.5757575757575757</v>
       </c>
-      <c r="H30" t="n" s="776">
+      <c r="H34" t="n" s="777">
         <v>1.2255178250004932</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="765">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="770">
-        <v>33.0</v>
-      </c>
-      <c r="C31" t="n" s="771">
-        <v>0.47938164580163534</v>
-      </c>
-      <c r="D31" t="n" s="772">
-        <v>0.43843701632341586</v>
-      </c>
-      <c r="E31" t="n" s="773">
-        <v>0.4575647240636644</v>
-      </c>
-      <c r="F31" t="n" s="774">
-        <v>0.3149256088604336</v>
-      </c>
-      <c r="G31" t="n" s="775">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="H31" t="n" s="776">
-        <v>1.3257359305592338</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="765">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="770">
-        <v>33.0</v>
-      </c>
-      <c r="C32" t="n" s="771">
-        <v>0.5191161491030521</v>
-      </c>
-      <c r="D32" t="n" s="772">
-        <v>0.4784842462796911</v>
-      </c>
-      <c r="E32" t="n" s="773">
-        <v>0.4997050274887482</v>
-      </c>
-      <c r="F32" t="n" s="774">
-        <v>0.33412810993749664</v>
-      </c>
-      <c r="G32" t="n" s="775">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="H32" t="n" s="776">
-        <v>1.5225576567676569</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>33.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.5564137535372088</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5837576491014231</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.5485579328372399</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4114024833276901</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.1515151515151516</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.2777228798044424</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>33.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.21104211827856748</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.22947986468282783</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.12744250182679737</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.03524367225877534</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>2.212121212121212</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.2439246298906075</v>
       </c>
     </row>
     <row r="35">
@@ -7989,291 +8172,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="781">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
+      <c r="B38" t="s" s="795">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="794">
+      <c r="C38" t="s" s="795">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="794">
+      <c r="D38" t="s" s="795">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="794">
+      <c r="E38" t="s" s="795">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="794">
+      <c r="F38" t="s" s="795">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="794">
+      <c r="G38" t="s" s="795">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="795">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="790">
+      <c r="A39" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="796">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="796">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="795">
+      <c r="B42" t="n" s="796">
         <v>0.06060606060606061</v>
       </c>
-      <c r="C39" t="n" s="796">
+      <c r="C42" t="n" s="797">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="796">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="798">
+      <c r="C43" t="n" s="797">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="799">
         <v>0.45454545454545453</v>
       </c>
-      <c r="F39" t="n" s="799">
+      <c r="F43" t="n" s="800">
         <v>0.42424242424242425</v>
       </c>
-      <c r="G39" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H39" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="790">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="795">
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="796">
         <v>0.06060606060606061</v>
       </c>
-      <c r="C40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="797">
+      <c r="C44" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="798">
         <v>0.06060606060606061</v>
       </c>
-      <c r="E40" t="n" s="798">
+      <c r="E44" t="n" s="799">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F40" t="n" s="799">
+      <c r="F44" t="n" s="800">
         <v>0.2727272727272727</v>
       </c>
-      <c r="G40" t="n" s="800">
+      <c r="G44" t="n" s="801">
         <v>0.3333333333333333</v>
       </c>
-      <c r="H40" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="790">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="795">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C41" t="n" s="796">
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="796">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="791">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="796">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="C46" t="n" s="797">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="D46" t="n" s="798">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D41" t="n" s="797">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="E41" t="n" s="798">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="F41" t="n" s="799">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="G41" t="n" s="800">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="H41" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="790">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="795">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C42" t="n" s="796">
+      <c r="E46" t="n" s="799">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="791">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="796">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D47" t="n" s="798">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E47" t="n" s="799">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="F47" t="n" s="800">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D42" t="n" s="797">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="F42" t="n" s="799">
+      <c r="G47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="791">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="796">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C48" t="n" s="797">
         <v>0.15151515151515152</v>
       </c>
-      <c r="G42" t="n" s="800">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H42" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="790">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="795">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C43" t="n" s="796">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="D43" t="n" s="797">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="F43" t="n" s="799">
+      <c r="D48" t="n" s="798">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E48" t="n" s="799">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F48" t="n" s="800">
         <v>0.06060606060606061</v>
       </c>
-      <c r="G43" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="790">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="795">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="C44" t="n" s="796">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="D44" t="n" s="797">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E44" t="n" s="798">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="F44" t="n" s="799">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G44" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="790">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="795">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="C45" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="799">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="G45" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
+      <c r="G48" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
